--- a/data/trans_dic/IP43-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP43-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 23,72</t>
+          <t>10,61; 23,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 18,84</t>
+          <t>5,84; 18,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,63; 30,72</t>
+          <t>16,53; 31,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 27,5</t>
+          <t>11,63; 27,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,52; 25,39</t>
+          <t>15,57; 25,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 20,16</t>
+          <t>10,46; 20,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,54; 28,71</t>
+          <t>22,18; 28,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 14,82</t>
+          <t>9,92; 14,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,7; 27,14</t>
+          <t>20,39; 27,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,25</t>
+          <t>10,22; 15,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 27,04</t>
+          <t>22,41; 27,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 14,19</t>
+          <t>10,92; 14,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,71; 26,52</t>
+          <t>16,14; 26,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 13,81</t>
+          <t>6,63; 13,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 25,92</t>
+          <t>15,42; 25,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 12,81</t>
+          <t>5,97; 12,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 24,11</t>
+          <t>16,7; 24,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,05</t>
+          <t>7,02; 12,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,73</t>
+          <t>20,98; 25,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,34</t>
+          <t>9,76; 13,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,45; 25,56</t>
+          <t>20,37; 25,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,42; 14,32</t>
+          <t>10,43; 14,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,36; 25,05</t>
+          <t>21,46; 25,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,56; 13,27</t>
+          <t>10,56; 13,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">

--- a/data/trans_dic/IP43-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP43-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>17,08; 31,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,97; 27,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,1; 24,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,86; 17,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 2,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>15,5; 25,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,99; 20,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 1,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -772,12 +772,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,61; 23,87</t>
+          <t>20,86; 27,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 18,38</t>
+          <t>10,36; 15,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,53; 31,05</t>
+          <t>22,53; 28,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,63; 27,24</t>
+          <t>9,81; 14,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,57; 25,22</t>
+          <t>22,42; 27,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,46; 20,27</t>
+          <t>10,88; 14,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0; 0,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,18; 28,64</t>
+          <t>15,21; 26,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,92; 14,85</t>
+          <t>5,91; 12,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,39; 27,05</t>
+          <t>15,73; 26,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 15,24</t>
+          <t>6,94; 13,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,41; 27,06</t>
+          <t>16,66; 24,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,92; 14,28</t>
+          <t>7,0; 12,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1015,172 +1015,61 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 26,08</t>
+          <t>20,17; 25,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 13,32</t>
+          <t>10,65; 14,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 25,68</t>
+          <t>21,01; 25,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 12,97</t>
+          <t>9,65; 13,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 24,09</t>
+          <t>21,37; 25,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 12,11</t>
+          <t>10,62; 13,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0; 0,1</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>23,37%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>11,46%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>22,81%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,33%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>23,1%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>11,88%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>20,98; 25,92</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,76; 13,68</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>20,37; 25,65</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>10,43; 14,35</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>21,46; 25,02</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>10,56; 13,31</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
